--- a/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 15,03</t>
+          <t>-11,75; 15,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 13,15</t>
+          <t>-11,62; 12,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 10,54</t>
+          <t>-7,39; 9,08</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 58,55</t>
+          <t>-33,05; 67,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 56,63</t>
+          <t>-31,42; 50,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 40,74</t>
+          <t>-21,42; 35,07</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 5,63</t>
+          <t>-8,63; 9,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 9,63</t>
+          <t>-7,13; 9,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,67</t>
+          <t>-5,29; 6,85</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 12,16</t>
+          <t>-15,42; 21,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 20,49</t>
+          <t>-12,92; 20,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 12,0</t>
+          <t>-9,63; 14,26</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,44</t>
+          <t>-10,47; 7,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 8,09</t>
+          <t>-5,98; 9,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 4,71</t>
+          <t>-6,27; 5,35</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,08%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 7,99</t>
+          <t>-13,83; 11,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 12,76</t>
+          <t>-8,11; 14,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 7,07</t>
+          <t>-8,44; 7,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,72</t>
+          <t>-6,97; 5,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,87</t>
+          <t>-2,42; 8,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,02</t>
+          <t>-2,79; 5,88</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 9,1</t>
+          <t>-12,81; 11,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 16,6</t>
+          <t>-5,31; 19,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,17</t>
+          <t>-5,55; 12,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 4,95</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 7,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 9,9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 15,25</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 10,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.136135434280112</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.627594928339787</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.892622777677105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 15,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,62; 12,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,39; 9,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.1745398155637</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.17406982058772</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.430560369366638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.85001491117864</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.61174101378308</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.21898984471096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-33,05; 67,07</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-31,42; 50,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 35,07</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07369533414361014</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.05298067598898119</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.06326496152827685</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2903275119604677</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.305321172987716</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1842556846691785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; 9,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 9,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 6,85</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7476119435266091</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5302753146075638</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3973291694186164</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.2163963099992894</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.575835759176493</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.957736699396417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-15,42; 21,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 20,63</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 14,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.733256885641703</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.120570138244986</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.111788914835104</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.849987829226299</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.60018552667678</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.910141251620193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,47; 7,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 9,53</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 5,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.004195072489831644</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.070362188825366</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03824900549927687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1538791687268566</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.09335875741611767</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.07485682193887198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 11,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,11; 14,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 7,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2096765412791969</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2504294674899537</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1670395567186181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.318249694931518</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.69699673502629</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1781749118190956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 5,58</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 8,14</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 5,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.8704269474817</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.137220377840468</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.900223672837054</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.124556762276523</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.429711137160668</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.25841175467245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-12,81; 11,17</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 19,14</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 12,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03165190919069206</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02421377218993233</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.002490513608095752</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1416543943304766</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.08439769534105367</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.09353067472257789</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 4,95</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 7,27</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 5,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.1147837808571628</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1452432048986703</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.07837740535507291</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2459691663975971</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.178270807246929</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.264592082351612</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 9,9</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 15,25</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 10,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.269609784456394</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.652584802581077</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.694081868684576</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.434863498895433</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.577044516171267</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.557456718336329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.004460183679463184</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.04024645472987849</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.02315937121798195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.10889353541702</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.06364564966178704</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04808160399452589</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1242312606543062</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1468354791800047</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1053443473682247</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
